--- a/data/inventory/lci-preeuro0.xlsx
+++ b/data/inventory/lci-preeuro0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - NTNU\Attachments\PSI\jupyter\Adapt LCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nistad_a\Desktop\scrappage-bev\data\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{DC8317F5-52D1-4AC3-A1D3-6BB3D2774D29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D92B73B8-5612-44DA-B52F-54C9DBE086CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39D53E2D-27C3-43EE-BF8B-36B057C1D73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="pre euro 0" sheetId="1" r:id="rId1"/>
@@ -258,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,7 +345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,19 +656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B21988-4A1A-4C49-A7C7-FE00B5E31B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="K178" sqref="K178"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="K462" sqref="K462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -677,7 +676,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -685,7 +684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -693,7 +692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -701,7 +700,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -710,7 +709,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -718,7 +717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -726,12 +725,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -754,7 +753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -771,7 +770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -788,7 +787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -805,7 +804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -822,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -839,7 +838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -856,7 +855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -873,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -890,7 +889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -907,7 +906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -924,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -944,7 +943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -964,7 +963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -984,7 +983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1244,12 +1243,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1762,12 +1761,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>62</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2160,7 +2159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2280,12 +2279,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>54</v>
       </c>
@@ -2766,7 +2765,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>53</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -2798,12 +2797,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>62</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>54</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3316,12 +3315,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>41</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>62</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75">
       <c r="A196" s="1" t="s">
         <v>54</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>47</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3834,12 +3833,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75">
       <c r="A201" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>34</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>62</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15.75">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4352,12 +4351,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>43</v>
       </c>
@@ -4397,12 +4396,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>42</v>
       </c>
       <c r="B236">
-        <v>5.4205918684601747E-5</v>
+        <v>5.6188479065895099E-5</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4414,12 +4413,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>41</v>
       </c>
       <c r="B237">
-        <v>0.30404727172851598</v>
+        <v>0.28781475830078102</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4431,12 +4430,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>40</v>
       </c>
       <c r="B238">
-        <v>1.32301659584045E-2</v>
+        <v>1.4206546783447301E-2</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4448,7 +4447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>39</v>
       </c>
@@ -4465,12 +4464,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>38</v>
       </c>
       <c r="B240">
-        <v>4.1706381365656851E-5</v>
+        <v>4.3231777846813199E-5</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -4482,12 +4481,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>37</v>
       </c>
       <c r="B241">
-        <v>1.195871651172635E-3</v>
+        <v>1.2396101951599101E-3</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -4499,12 +4498,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>36</v>
       </c>
       <c r="B242">
-        <v>2.2099697589874302E-3</v>
+        <v>2.26339960098267E-3</v>
       </c>
       <c r="D242" t="s">
         <v>2</v>
@@ -4516,7 +4515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -4533,12 +4532,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>34</v>
       </c>
       <c r="B244">
-        <v>1.4595960965380099E-6</v>
+        <v>1.3816710561513901E-6</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -4550,7 +4549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>31</v>
       </c>
@@ -4570,7 +4569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4710,12 +4709,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253">
-        <v>9.6981803894042998E-2</v>
+        <v>9.1804130554199198E-2</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -4730,7 +4729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.75">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -4870,12 +4869,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15.75">
       <c r="A265" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>43</v>
       </c>
@@ -4915,12 +4914,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>42</v>
       </c>
       <c r="B268">
-        <v>5.4205918684601747E-5</v>
+        <v>5.6188479065895099E-5</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -4932,12 +4931,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>41</v>
       </c>
       <c r="B269">
-        <v>0.180473541259766</v>
+        <v>0.170838409423828</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -4949,12 +4948,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>40</v>
       </c>
       <c r="B270">
-        <v>1.32301659584045E-2</v>
+        <v>1.4206546783447301E-2</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -4966,7 +4965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -4983,12 +4982,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>38</v>
       </c>
       <c r="B272">
-        <v>4.1706381365656851E-5</v>
+        <v>4.3231777846813199E-5</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -5000,12 +4999,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>37</v>
       </c>
       <c r="B273">
-        <v>1.195871651172635E-3</v>
+        <v>1.2396101951599101E-3</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -5017,12 +5016,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>36</v>
       </c>
       <c r="B274">
-        <v>2.2099697589874302E-3</v>
+        <v>2.26339960098267E-3</v>
       </c>
       <c r="D274" t="s">
         <v>2</v>
@@ -5034,7 +5033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -5051,12 +5050,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>34</v>
       </c>
       <c r="B276">
-        <v>8.6637347703799611E-7</v>
+        <v>8.2011945778504004E-7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -5068,7 +5067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>26</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5228,12 +5227,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>17</v>
       </c>
       <c r="B285">
-        <v>5.7565555572509801E-2</v>
+        <v>5.4492240905761699E-2</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -5248,7 +5247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75">
       <c r="A292" s="1" t="s">
         <v>54</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>47</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -5388,12 +5387,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75">
       <c r="A297" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>43</v>
       </c>
@@ -5433,12 +5432,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>42</v>
       </c>
       <c r="B300">
-        <v>5.4205918684601747E-5</v>
+        <v>5.6188479065895099E-5</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -5450,12 +5449,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>41</v>
       </c>
       <c r="B301">
-        <v>0.25367266845703151</v>
+        <v>0.244772857666016</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -5467,12 +5466,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>40</v>
       </c>
       <c r="B302">
-        <v>1.32301659584045E-2</v>
+        <v>1.4206546783447301E-2</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -5484,7 +5483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>39</v>
       </c>
@@ -5501,12 +5500,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>38</v>
       </c>
       <c r="B304">
-        <v>4.1706381365656851E-5</v>
+        <v>4.3231777846813199E-5</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -5518,12 +5517,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>37</v>
       </c>
       <c r="B305">
-        <v>1.195871651172635E-3</v>
+        <v>1.2396101951599101E-3</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -5535,12 +5534,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>36</v>
       </c>
       <c r="B306">
-        <v>2.2099697589874302E-3</v>
+        <v>2.26339960098267E-3</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -5552,7 +5551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -5569,12 +5568,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308">
-        <v>1.21777004096657E-6</v>
+        <v>1.1750459671020501E-6</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -5586,7 +5585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5746,12 +5745,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>17</v>
       </c>
       <c r="B317">
-        <v>8.0913845062255865E-2</v>
+        <v>7.8075073242187501E-2</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -5766,7 +5765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15.75">
       <c r="A324" s="1" t="s">
         <v>54</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>53</v>
       </c>
@@ -5882,7 +5881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -5906,12 +5905,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.75">
       <c r="A329" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>43</v>
       </c>
@@ -5951,12 +5950,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>42</v>
       </c>
       <c r="B332">
-        <v>5.4205918684601747E-5</v>
+        <v>5.6188479065895099E-5</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -5968,12 +5967,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>41</v>
       </c>
       <c r="B333">
-        <v>0.180473541259766</v>
+        <v>0.170838409423828</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -5985,12 +5984,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>40</v>
       </c>
       <c r="B334">
-        <v>1.32301659584045E-2</v>
+        <v>1.4206546783447301E-2</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -6002,7 +6001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -6019,12 +6018,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>38</v>
       </c>
       <c r="B336">
-        <v>4.1706381365656851E-5</v>
+        <v>4.3231777846813199E-5</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -6036,12 +6035,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>37</v>
       </c>
       <c r="B337">
-        <v>1.195871651172635E-3</v>
+        <v>1.2396101951599101E-3</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -6053,12 +6052,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>36</v>
       </c>
       <c r="B338">
-        <v>2.2099697589874302E-3</v>
+        <v>2.26339960098267E-3</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -6070,7 +6069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>35</v>
       </c>
@@ -6087,12 +6086,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340">
-        <v>8.6637347703799611E-7</v>
+        <v>8.2011945778504004E-7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -6104,7 +6103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -6204,7 +6203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -6264,12 +6263,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>17</v>
       </c>
       <c r="B349">
-        <v>5.7565555572509801E-2</v>
+        <v>5.4492240905761699E-2</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -6284,7 +6283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -6344,7 +6343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.75">
       <c r="A356" s="1" t="s">
         <v>54</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>53</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>47</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -6424,12 +6423,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.75">
       <c r="A361" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>49</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>43</v>
       </c>
@@ -6469,12 +6468,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>42</v>
       </c>
       <c r="B364">
-        <v>5.4205918684601747E-5</v>
+        <v>5.6188479065895099E-5</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -6486,12 +6485,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>41</v>
       </c>
       <c r="B365">
-        <v>0.30404727172851598</v>
+        <v>0.28781475830078102</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -6503,12 +6502,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>40</v>
       </c>
       <c r="B366">
-        <v>1.32301659584045E-2</v>
+        <v>1.4206546783447301E-2</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -6520,7 +6519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>39</v>
       </c>
@@ -6537,12 +6536,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>38</v>
       </c>
       <c r="B368">
-        <v>4.1706381365656851E-5</v>
+        <v>4.3231777846813199E-5</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -6554,12 +6553,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>37</v>
       </c>
       <c r="B369">
-        <v>1.195871651172635E-3</v>
+        <v>1.2396101951599101E-3</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6571,12 +6570,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>36</v>
       </c>
       <c r="B370">
-        <v>2.2099697589874302E-3</v>
+        <v>2.26339960098267E-3</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -6588,7 +6587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>35</v>
       </c>
@@ -6605,12 +6604,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372">
-        <v>1.4595960965380099E-6</v>
+        <v>1.3816710561513901E-6</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -6622,7 +6621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -6782,12 +6781,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>17</v>
       </c>
       <c r="B381">
-        <v>9.6981803894042998E-2</v>
+        <v>9.1804130554199198E-2</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -6802,7 +6801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="15.75">
       <c r="A388" s="1" t="s">
         <v>54</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>53</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>47</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6942,12 +6941,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="15.75">
       <c r="A393" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
         <v>43</v>
       </c>
@@ -6987,12 +6986,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>42</v>
       </c>
       <c r="B396">
-        <v>5.4205918684601747E-5</v>
+        <v>5.6188479065895099E-5</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -7004,12 +7003,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>41</v>
       </c>
       <c r="B397">
-        <v>0.180473541259766</v>
+        <v>0.170838409423828</v>
       </c>
       <c r="D397" t="s">
         <v>2</v>
@@ -7021,12 +7020,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>40</v>
       </c>
       <c r="B398">
-        <v>1.32301659584045E-2</v>
+        <v>1.4206546783447301E-2</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -7038,7 +7037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>39</v>
       </c>
@@ -7055,12 +7054,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>38</v>
       </c>
       <c r="B400">
-        <v>4.1706381365656851E-5</v>
+        <v>4.3231777846813199E-5</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -7072,12 +7071,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>37</v>
       </c>
       <c r="B401">
-        <v>1.195871651172635E-3</v>
+        <v>1.2396101951599101E-3</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -7089,12 +7088,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
         <v>36</v>
       </c>
       <c r="B402">
-        <v>2.2099697589874302E-3</v>
+        <v>2.26339960098267E-3</v>
       </c>
       <c r="D402" t="s">
         <v>2</v>
@@ -7106,7 +7105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -7123,12 +7122,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>34</v>
       </c>
       <c r="B404">
-        <v>8.6637347703799611E-7</v>
+        <v>8.2011945778504004E-7</v>
       </c>
       <c r="D404" t="s">
         <v>2</v>
@@ -7140,7 +7139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>28</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -7280,7 +7279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -7300,12 +7299,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>17</v>
       </c>
       <c r="B413">
-        <v>5.7565555572509801E-2</v>
+        <v>5.4492240905761699E-2</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -7320,7 +7319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15.75">
       <c r="A420" s="1" t="s">
         <v>54</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>53</v>
       </c>
@@ -7436,7 +7435,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>47</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -7460,12 +7459,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.75">
       <c r="A425" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>43</v>
       </c>
@@ -7505,12 +7504,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>42</v>
       </c>
       <c r="B428">
-        <v>5.4205918684601747E-5</v>
+        <v>5.6188479065895099E-5</v>
       </c>
       <c r="D428" t="s">
         <v>2</v>
@@ -7522,12 +7521,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>41</v>
       </c>
       <c r="B429">
-        <v>0.25367266845703151</v>
+        <v>0.244772857666016</v>
       </c>
       <c r="D429" t="s">
         <v>2</v>
@@ -7539,12 +7538,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>40</v>
       </c>
       <c r="B430">
-        <v>1.32301659584045E-2</v>
+        <v>1.4206546783447301E-2</v>
       </c>
       <c r="D430" t="s">
         <v>2</v>
@@ -7556,7 +7555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>39</v>
       </c>
@@ -7573,12 +7572,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>38</v>
       </c>
       <c r="B432">
-        <v>4.1706381365656851E-5</v>
+        <v>4.3231777846813199E-5</v>
       </c>
       <c r="D432" t="s">
         <v>2</v>
@@ -7590,12 +7589,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>37</v>
       </c>
       <c r="B433">
-        <v>1.195871651172635E-3</v>
+        <v>1.2396101951599101E-3</v>
       </c>
       <c r="D433" t="s">
         <v>2</v>
@@ -7607,12 +7606,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>36</v>
       </c>
       <c r="B434">
-        <v>2.2099697589874302E-3</v>
+        <v>2.26339960098267E-3</v>
       </c>
       <c r="D434" t="s">
         <v>2</v>
@@ -7624,7 +7623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>35</v>
       </c>
@@ -7641,12 +7640,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>34</v>
       </c>
       <c r="B436">
-        <v>1.21777004096657E-6</v>
+        <v>1.1750459671020501E-6</v>
       </c>
       <c r="D436" t="s">
         <v>2</v>
@@ -7658,7 +7657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>30</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>28</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -7818,12 +7817,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>17</v>
       </c>
       <c r="B445">
-        <v>8.0913845062255865E-2</v>
+        <v>7.8075073242187501E-2</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -7838,7 +7837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -7898,7 +7897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -7938,81 +7937,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="B452" s="2"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="B459" s="4"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="6"/>
       <c r="B460" s="4"/>
       <c r="H460" s="6"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="6"/>
       <c r="B461" s="4"/>
       <c r="H461" s="6"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="15.75">
       <c r="A487" s="1"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="15.75">
       <c r="A492" s="1"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="15.75">
       <c r="A519" s="1"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="15.75">
       <c r="A524" s="1"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="15.75">
       <c r="A551" s="1"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="15.75">
       <c r="A556" s="1"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="15.75">
       <c r="A583" s="1"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="15.75">
       <c r="A588" s="1"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="15.75">
       <c r="A615" s="1"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="15.75">
       <c r="A620" s="1"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="15.75">
       <c r="A653" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="15.75">
       <c r="A658" s="1"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="15.75">
       <c r="A691" s="1"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="15.75">
       <c r="A696" s="1"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="15.75">
       <c r="A729" s="1"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="15.75">
       <c r="A734" s="1"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="15.75">
       <c r="A767" s="1"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="15.75">
       <c r="A772" s="1"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="15.75">
       <c r="A805" s="1"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="15.75">
       <c r="A810" s="1"/>
     </row>
   </sheetData>
